--- a/app/data/schedules.xlsx
+++ b/app/data/schedules.xlsx
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">

--- a/app/data/schedules.xlsx
+++ b/app/data/schedules.xlsx
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="F103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">

--- a/app/data/schedules.xlsx
+++ b/app/data/schedules.xlsx
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="F104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="F105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="F106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="F107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
